--- a/data/2/20230608-a1r-nc-session2-l_transcript.xlsx
+++ b/data/2/20230608-a1r-nc-session2-l_transcript.xlsx
@@ -1,366 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 2/EXCEL 06:08 session 2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C536083A-39BF-A842-84D1-B175C3CDEEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230608-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="104">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"2:17"</t>
-  </si>
-  <si>
-    <t>"2:20"</t>
-  </si>
-  <si>
-    <t>I'm Jack and I'm from Pennsylvania.</t>
-  </si>
-  <si>
-    <t>"2:28"</t>
-  </si>
-  <si>
-    <t>I'm Danby and I'm from Idaho.</t>
-  </si>
-  <si>
-    <t>"10:33"</t>
-  </si>
-  <si>
-    <t>I am trying to, like understand what was just add it seem. Like there was a lot of information and I really couldn't get all in.</t>
-  </si>
-  <si>
-    <t>"11:11"</t>
-  </si>
-  <si>
-    <t>I think just breaking it down the first one that they talked about with the super-delegates for me. I'm opposed to the super delegates because I feel like they can be bought the more money you have, the more power you have. So I am not for that.</t>
-  </si>
-  <si>
-    <t>"11:32"</t>
-  </si>
-  <si>
-    <t>I agree about not really liking this first proposal for the national party convention in the super delegates. I just feel like it creates a situation where we feel more disconnected to the candidate. If we have a delegate group actually making the decision not us individually,</t>
-  </si>
-  <si>
-    <t>"12:02"</t>
-  </si>
-  <si>
-    <t>That makes a lot of sense. Thank you.</t>
-  </si>
-  <si>
-    <t>"12:09"</t>
-  </si>
-  <si>
-    <t>I agree from what I'm understanding so far. At least. I do not like this one.</t>
-  </si>
-  <si>
-    <t>"14:05"</t>
-  </si>
-  <si>
-    <t>I think for me just this issue of the popular vote being implemented in order to determine the winner for me, I like this idea much better than having the electoral college system. I feel like it gives us the sense that every single vote counts equally rather than you know, my vote in one States going to count much less than someone else's vote in another state.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> and so, I</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> would be in favor of eliminating, the Electoral College and going to</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the popular vote, whether it's ranked choice or not.</t>
-  </si>
-  <si>
-    <t>"15:10"</t>
-  </si>
-  <si>
-    <t>For myself, I prefer the Electoral College. I am still really confused about this ranked choice and how it could possibly be implemented across the entire United States plus make an amendment to the Constitution to get all these things changed. So I'd stay with the Electoral College.</t>
-  </si>
-  <si>
-    <t>"15:35"</t>
-  </si>
-  <si>
-    <t>Hey ready, I agree with with Rebecca, I do feel like me coming from California, you know, we're a solidly blue State and we don't have as much opportunity to engage with all the candidates because they're focused on swing States. And so, it would be interesting to change the actual college system to allow for a, you know, the overall total number of votes being the winner for that election.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> So, I agree, Rebecca.</t>
-  </si>
-  <si>
-    <t>"16:08"</t>
-  </si>
-  <si>
-    <t>I agree with Becca also and, you know, I said it myself and I've had other people say, you know, why should I vote when my votes not going to count anyway, because it goes to the Electoral College. So, if you think about it, nine times out of 10, when there's any kind of, you know, vote that people take, it's common to be the who gets the most votes, but except when we're doing the president,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And so it is very confusing. Then gets where I stand.</t>
-  </si>
-  <si>
-    <t>"16:50"</t>
-  </si>
-  <si>
-    <t>I agree. I feel like popular vote would be much better.</t>
-  </si>
-  <si>
-    <t>"17:01"</t>
-  </si>
-  <si>
-    <t>I agree with the popular vote, whether it was ranked choice or just, you know, how we've done it, but without the Electoral College, and to me, I think about when we talk about changing the Constitution because the Pearl called was written into that, think about will what was the need for the Electoral College? At the time that the constitution was written and is that need still relevant?</t>
-  </si>
-  <si>
-    <t>"18:57"</t>
-  </si>
-  <si>
-    <t>I think this goes back to what I was saying before, so I agree with it in that the national popular vote is, is the determining factor of who becomes the president United States and states. I read I read, I got the package y'all. I'm like actually reading it on paper and then I'm filling trees, but it's easier for me to read it and understand it. But basically, what it says is against, it's an end-around. It's an end run around the Constitution so that you'll have to amend the Constitution. So,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I am for this basically goes to my personal suggestion.</t>
-  </si>
-  <si>
-    <t>"19:35"</t>
-  </si>
-  <si>
-    <t>I interrupted you. I didn't mean to. I agree. Also with this, it may be an easier way to implement the popular vote than changing the Constitution, and it would again reflect what the majority of our citizens want for our presidential candidate.</t>
-  </si>
-  <si>
-    <t>"20:22"</t>
-  </si>
-  <si>
-    <t>Just for myself, looking at the cons that this approach is an end run around the Constitution, and it should be done through a constitutional amendment. And I agree with that, I don't think she should however, they were planning to implement it. I don't know. I just don't want to go around the Constitution.</t>
-  </si>
-  <si>
-    <t>"21:55"</t>
-  </si>
-  <si>
-    <t>I like the concept of this because I think there's people that just sit on the bench of the Supreme Court and they never change their views or any reason.</t>
-  </si>
-  <si>
-    <t>"22:10"</t>
-  </si>
-  <si>
-    <t>They're more partied, leaning as opposed to what the actual cases.</t>
-  </si>
-  <si>
-    <t>"22:21"</t>
-  </si>
-  <si>
-    <t>I would prefer keeping it to the nine justices for the Supreme Court as far as 18-year terms. I don't know if 18 is the magic number, but I believe that there should be some kind of a term limit. So when someone gets I don't know senile or whatever that as you age your mind is not as sharp. You're not up to date on all the news that there should be some kind</t>
-  </si>
-  <si>
-    <t>kind of a way as far as just sitting there and dying on the bench. I don't know if 18 years is it.</t>
-  </si>
-  <si>
-    <t>"22:58"</t>
-  </si>
-  <si>
-    <t>Thanks for the comments so far. I I agree with both keeping it 29 having a little more time. I think the most important thing for me is one representation, our community continues to diversify with thought and and you know, and so I think it's important for the justices to not feel like they have full, you know, basically a full Authority, do whatever they want until they until they</t>
-  </si>
-  <si>
-    <t>Side to leave, right? That they their legacy is 18 years or whatever. The amount is over timeline is and they should act accordingly.</t>
-  </si>
-  <si>
-    <t>"23:38"</t>
-  </si>
-  <si>
-    <t>Yeah. And every other Federal position has a term limit, so why shouldn't they</t>
-  </si>
-  <si>
-    <t>"23:48"</t>
-  </si>
-  <si>
-    <t>I dream there should be some sort of a time limit, especially where nature, let's say ceiling or a limit for especially. I mean, you got guys and gals on the bench that there are 85 Plus, and their cognitive skills are obviously not that they used to be 20 years ago.</t>
-  </si>
-  <si>
-    <t>"24:09"</t>
-  </si>
-  <si>
-    <t>In a my understanding, why are they like, you know, on the bench and exactly what they stand for and what their agenda is? So I guess before I would even really have an opinion, I'd have to understand all that.</t>
-  </si>
-  <si>
-    <t>"24:41"</t>
-  </si>
-  <si>
-    <t>I also agree with the idea of term limits again. I don't know that 18 years is the magic number. I think, for me, term limits are more important than the number of justices and I think as we've seen since the Justice nomination seem to be more and more kind of politically aligned that this idea that we have an impartial Supreme Court.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Structure for me, I've kind of lost faith in that. So I think it works both ways if there was term limits to kind of keep potentially the Supreme Court body more balanced and neutral than it is now</t>
-  </si>
-  <si>
-    <t>"26:57"</t>
-  </si>
-  <si>
-    <t>I actually think these proposals are blend out well, however, I don't know if it's going to be implemented. Well,</t>
-  </si>
-  <si>
-    <t>"27:16"</t>
-  </si>
-  <si>
-    <t>I don't know where the funding would come from for each state, but I think it would be a great idea to increase education for all</t>
-  </si>
-  <si>
-    <t>"27:29"</t>
-  </si>
-  <si>
-    <t>I agree both speakers on someone that has someone's gone from to Community College and I've been in actually study political science. I also, I think it is important for everyone within the United States to understand what our government does, local state federal how it impacts us in our communities, and how people can get involved and, you know, doesn't matter where you are in the political Spectrum, right? The most important thing is that everyone gets involved in does their part but for me, I took public service. So</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I think that it would be money. Well, spent, well spent,</t>
-  </si>
-  <si>
-    <t>"28:13"</t>
-  </si>
-  <si>
-    <t>I agree. I think it would be well spent for civic education in schools.</t>
-  </si>
-  <si>
-    <t>"31:59"</t>
-  </si>
-  <si>
-    <t>So at the end when they had the questions last time where I like the Zoom part after this discussion part and they say, okay, so and so say like Anthony from Group, H, Group H, Anthony, what's your question? I like, what group are we, we don't have a letter or any of our questions and none of our questions were even asked. So I don't even know about this part.</t>
-  </si>
-  <si>
-    <t>"32:32"</t>
-  </si>
-  <si>
-    <t>I had the same question. I thought I missed something the other night.</t>
-  </si>
-  <si>
-    <t>"33:16"</t>
-  </si>
-  <si>
-    <t>I think the first question is pretty clear, and detailed. I don't really have any suggestions to change it.</t>
-  </si>
-  <si>
-    <t>"33:30"</t>
-  </si>
-  <si>
-    <t>Yeah, either do I but I also agree with you guys about the questions. I don't know what group you're in.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> None of our questions were asked.</t>
-  </si>
-  <si>
-    <t>"33:55"</t>
-  </si>
-  <si>
-    <t>Okay. And I was like, wait, what? If they call up me? What was my question? I didn't even write it down. So Andrea Nas, maybe you need to write your questions down so you can remember them for sure.</t>
-  </si>
-  <si>
-    <t>"34:09"</t>
-  </si>
-  <si>
-    <t>I like both questions. I also this share the same questions from the group. I think I think our group number or a group name. Alphabet was TBD as to be did. Okay? Jokes are okay.</t>
-  </si>
-  <si>
-    <t>"34:23"</t>
-  </si>
-  <si>
-    <t>Funny.</t>
-  </si>
-  <si>
-    <t>"34:43"</t>
-  </si>
-  <si>
-    <t>You know, now that you said that, I know that we made this call out. I bet you they're going to ask other questions. So Oz and Andrea. Thank you for setting this group. Whatever we are.</t>
-  </si>
-  <si>
-    <t>"35:35"</t>
-  </si>
-  <si>
-    <t>Any of these are both great, I don't know, but you but every time the facilitators talking it's like so much lower. It's like</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Okay, it's not just me.</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -436,44 +113,44 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -542,14 +219,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1624,727 +1293,864 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS57"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="1" ht="20.25" customHeight="1" s="9">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="9">
+      <c r="A2" s="4" t="n">
         <v>48750</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>"2:17"</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="n"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="9">
+      <c r="A3" s="4" t="n">
         <v>48750</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>"2:20"</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>I'm Jack and I'm from Pennsylvania.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="9">
+      <c r="A4" s="4" t="n">
         <v>48751</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>"2:28"</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>I'm Danby and I'm from Idaho.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="9">
+      <c r="A5" s="4" t="n">
         <v>48750</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>"10:33"</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>I am trying to, like understand what was just add it seem. Like there was a lot of information and I really couldn't get all in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="9">
+      <c r="A6" s="4" t="n">
         <v>48720</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>"11:11"</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>I think just breaking it down the first one that they talked about with the super-delegates for me. I'm opposed to the super delegates because I feel like they can be bought the more money you have, the more power you have. So I am not for that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="9">
+      <c r="A7" s="4" t="n">
         <v>48724</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>"11:32"</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>I agree about not really liking this first proposal for the national party convention in the super delegates. I just feel like it creates a situation where we feel more disconnected to the candidate. If we have a delegate group actually making the decision not us individually,</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="9">
+      <c r="A8" s="4" t="n">
         <v>48724</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>"11:32"</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n"/>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="9">
+      <c r="A9" s="4" t="n">
         <v>48750</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>"12:02"</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>That makes a lot of sense. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="9">
+      <c r="A10" s="4" t="n">
         <v>48718</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>"12:09"</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>I agree from what I'm understanding so far. At least. I do not like this one.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="9">
+      <c r="A11" s="4" t="n">
         <v>48724</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>"14:05"</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>I think for me just this issue of the popular vote being implemented in order to determine the winner for me, I like this idea much better than having the electoral college system. I feel like it gives us the sense that every single vote counts equally rather than you know, my vote in one States going to count much less than someone else's vote in another state.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="9">
+      <c r="A12" s="4" t="n">
         <v>48724</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>"14:05"</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> and so, I</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="9">
+      <c r="A13" s="4" t="n">
         <v>48724</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>"14:05"</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> would be in favor of eliminating, the Electoral College and going to</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="9">
+      <c r="A14" s="4" t="n">
         <v>48724</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>"14:05"</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> the popular vote, whether it's ranked choice or not.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="9">
+      <c r="A15" s="4" t="n">
         <v>48720</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>"15:10"</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>For myself, I prefer the Electoral College. I am still really confused about this ranked choice and how it could possibly be implemented across the entire United States plus make an amendment to the Constitution to get all these things changed. So I'd stay with the Electoral College.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="9">
+      <c r="A16" s="4" t="n">
         <v>10044</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>"15:35"</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>Hey ready, I agree with with Rebecca, I do feel like me coming from California, you know, we're a solidly blue State and we don't have as much opportunity to engage with all the candidates because they're focused on swing States. And so, it would be interesting to change the actual college system to allow for a, you know, the overall total number of votes being the winner for that election.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="9">
+      <c r="A17" s="4" t="n">
         <v>10044</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>"15:35"</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> So, I agree, Rebecca.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="9">
+      <c r="A18" s="4" t="n">
         <v>48723</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>"16:08"</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>I agree with Becca also and, you know, I said it myself and I've had other people say, you know, why should I vote when my votes not going to count anyway, because it goes to the Electoral College. So, if you think about it, nine times out of 10, when there's any kind of, you know, vote that people take, it's common to be the who gets the most votes, but except when we're doing the president,</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="9">
+      <c r="A19" s="4" t="n">
         <v>48723</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>"16:08"</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And so it is very confusing. Then gets where I stand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="9">
+      <c r="A20" s="4" t="n">
         <v>48718</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>"16:50"</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>I agree. I feel like popular vote would be much better.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="9">
+      <c r="A21" s="4" t="n">
         <v>48751</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>"17:01"</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>I agree with the popular vote, whether it was ranked choice or just, you know, how we've done it, but without the Electoral College, and to me, I think about when we talk about changing the Constitution because the Pearl called was written into that, think about will what was the need for the Electoral College? At the time that the constitution was written and is that need still relevant?</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="9">
+      <c r="A22" s="4" t="n">
         <v>48751</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>"17:01"</t>
+        </is>
+      </c>
+      <c r="C22" s="6" t="n"/>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="9">
+      <c r="A23" s="4" t="n">
         <v>10044</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>"18:57"</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="n"/>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="9">
+      <c r="A24" s="4" t="n">
         <v>10044</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>"18:57"</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>I think this goes back to what I was saying before, so I agree with it in that the national popular vote is, is the determining factor of who becomes the president United States and states. I read I read, I got the package y'all. I'm like actually reading it on paper and then I'm filling trees, but it's easier for me to read it and understand it. But basically, what it says is against, it's an end-around. It's an end run around the Constitution so that you'll have to amend the Constitution. So,</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="9">
+      <c r="A25" s="4" t="n">
         <v>10044</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>"18:57"</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I am for this basically goes to my personal suggestion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="9">
+      <c r="A26" s="4" t="n">
         <v>48724</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>"19:35"</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>I interrupted you. I didn't mean to. I agree. Also with this, it may be an easier way to implement the popular vote than changing the Constitution, and it would again reflect what the majority of our citizens want for our presidential candidate.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="9">
+      <c r="A27" s="4" t="n">
         <v>48720</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>"20:22"</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>Just for myself, looking at the cons that this approach is an end run around the Constitution, and it should be done through a constitutional amendment. And I agree with that, I don't think she should however, they were planning to implement it. I don't know. I just don't want to go around the Constitution.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="9">
+      <c r="A28" s="4" t="n">
         <v>48750</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>"21:55"</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>I like the concept of this because I think there's people that just sit on the bench of the Supreme Court and they never change their views or any reason.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="9">
+      <c r="A29" s="4" t="n">
         <v>48750</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>"21:55"</t>
+        </is>
+      </c>
+      <c r="C29" s="6" t="n"/>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="9">
+      <c r="A30" s="4" t="n">
         <v>48750</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>"22:10"</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>They're more partied, leaning as opposed to what the actual cases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="9">
+      <c r="A31" s="4" t="n">
         <v>48720</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>"22:21"</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>I would prefer keeping it to the nine justices for the Supreme Court as far as 18-year terms. I don't know if 18 is the magic number, but I believe that there should be some kind of a term limit. So when someone gets I don't know senile or whatever that as you age your mind is not as sharp. You're not up to date on all the news that there should be some kind</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="9">
+      <c r="A32" s="4" t="n">
         <v>48720</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4">
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>"22:21"</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>kind of a way as far as just sitting there and dying on the bench. I don't know if 18 years is it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="9">
+      <c r="A33" s="4" t="n">
         <v>10044</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>"22:58"</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>Thanks for the comments so far. I I agree with both keeping it 29 having a little more time. I think the most important thing for me is one representation, our community continues to diversify with thought and and you know, and so I think it's important for the justices to not feel like they have full, you know, basically a full Authority, do whatever they want until they until they</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="9">
+      <c r="A34" s="4" t="n">
         <v>10044</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4">
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>"22:58"</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>Side to leave, right? That they their legacy is 18 years or whatever. The amount is over timeline is and they should act accordingly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="9">
+      <c r="A35" s="4" t="n">
         <v>48751</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4">
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>"23:38"</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>Yeah. And every other Federal position has a term limit, so why shouldn't they</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="9">
+      <c r="A36" s="4" t="n">
         <v>48722</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4">
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>"23:48"</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>I dream there should be some sort of a time limit, especially where nature, let's say ceiling or a limit for especially. I mean, you got guys and gals on the bench that there are 85 Plus, and their cognitive skills are obviously not that they used to be 20 years ago.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="9">
+      <c r="A37" s="4" t="n">
         <v>48723</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>"24:09"</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n"/>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="9">
+      <c r="A38" s="4" t="n">
         <v>48723</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4">
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>"24:09"</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>In a my understanding, why are they like, you know, on the bench and exactly what they stand for and what their agenda is? So I guess before I would even really have an opinion, I'd have to understand all that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="9">
+      <c r="A39" s="4" t="n">
         <v>48724</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>"24:41"</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>I also agree with the idea of term limits again. I don't know that 18 years is the magic number. I think, for me, term limits are more important than the number of justices and I think as we've seen since the Justice nomination seem to be more and more kind of politically aligned that this idea that we have an impartial Supreme Court.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="9">
+      <c r="A40" s="4" t="n">
         <v>48724</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4">
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>"24:41"</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Structure for me, I've kind of lost faith in that. So I think it works both ways if there was term limits to kind of keep potentially the Supreme Court body more balanced and neutral than it is now</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="9">
+      <c r="A41" s="4" t="n">
         <v>48750</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4">
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>"26:57"</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>I actually think these proposals are blend out well, however, I don't know if it's going to be implemented. Well,</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="9">
+      <c r="A42" s="4" t="n">
         <v>48718</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4">
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>"27:16"</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>I don't know where the funding would come from for each state, but I think it would be a great idea to increase education for all</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="9">
+      <c r="A43" s="4" t="n">
         <v>10044</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>"27:29"</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>I agree both speakers on someone that has someone's gone from to Community College and I've been in actually study political science. I also, I think it is important for everyone within the United States to understand what our government does, local state federal how it impacts us in our communities, and how people can get involved and, you know, doesn't matter where you are in the political Spectrum, right? The most important thing is that everyone gets involved in does their part but for me, I took public service. So</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="9">
+      <c r="A44" s="4" t="n">
         <v>10044</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4">
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>"27:29"</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I think that it would be money. Well, spent, well spent,</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="9">
+      <c r="A45" s="4" t="n">
         <v>48720</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4">
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>"28:13"</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>I agree. I think it would be well spent for civic education in schools.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="9">
+      <c r="A46" s="4" t="n">
         <v>48751</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4">
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>"31:59"</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>So at the end when they had the questions last time where I like the Zoom part after this discussion part and they say, okay, so and so say like Anthony from Group, H, Group H, Anthony, what's your question? I like, what group are we, we don't have a letter or any of our questions and none of our questions were even asked. So I don't even know about this part.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="9">
+      <c r="A47" s="4" t="n">
         <v>48751</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="6"/>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4">
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>"31:59"</t>
+        </is>
+      </c>
+      <c r="C47" s="6" t="n"/>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="9">
+      <c r="A48" s="4" t="n">
         <v>48718</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4">
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>"32:32"</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>I had the same question. I thought I missed something the other night.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="9">
+      <c r="A49" s="4" t="n">
         <v>48724</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4">
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>"33:16"</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>I think the first question is pretty clear, and detailed. I don't really have any suggestions to change it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="9">
+      <c r="A50" s="4" t="n">
         <v>48750</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="4">
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>"33:30"</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, either do I but I also agree with you guys about the questions. I don't know what group you're in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="9">
+      <c r="A51" s="4" t="n">
         <v>48750</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="4">
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>"33:30"</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> None of our questions were asked.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="9">
+      <c r="A52" s="4" t="n">
         <v>48751</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="4">
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>"33:55"</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>Okay. And I was like, wait, what? If they call up me? What was my question? I didn't even write it down. So Andrea Nas, maybe you need to write your questions down so you can remember them for sure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="9">
+      <c r="A53" s="4" t="n">
         <v>10044</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="4">
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>"34:09"</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>I like both questions. I also this share the same questions from the group. I think I think our group number or a group name. Alphabet was TBD as to be did. Okay? Jokes are okay.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="9">
+      <c r="A54" s="4" t="n">
         <v>48724</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="4">
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>"34:23"</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>Funny.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="9">
+      <c r="A55" s="4" t="n">
         <v>10044</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="4">
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>"34:43"</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>You know, now that you said that, I know that we made this call out. I bet you they're going to ask other questions. So Oz and Andrea. Thank you for setting this group. Whatever we are.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" s="9">
+      <c r="A56" s="4" t="n">
         <v>10044</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="4">
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>"35:35"</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>Any of these are both great, I don't know, but you but every time the facilitators talking it's like so much lower. It's like</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" s="9">
+      <c r="A57" s="4" t="n">
         <v>10044</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>87</v>
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>"35:35"</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Okay, it's not just me.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B61AE7-6EE2-3147-AC77-DB5AAC94F9EA}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/2/20230608-a1r-nc-session2-l_transcript.xlsx
+++ b/data/2/20230608-a1r-nc-session2-l_transcript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
